--- a/output/Дефициты АСТ 2024-03-20.xlsx
+++ b/output/Дефициты АСТ 2024-03-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="B2" t="n">
         <v>106396</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B3" t="n">
         <v>107208</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>113738</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="B5" t="n">
         <v>102910</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="B6" t="n">
         <v>107468</v>
@@ -798,7 +798,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2845203488372093</v>
+        <v>0.2858707557502738</v>
       </c>
       <c r="K6" t="n">
         <v>5.37</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>14193.75</v>
+        <v>15431.25</v>
       </c>
       <c r="N6" t="n">
-        <v>76220.4375</v>
+        <v>82865.8125</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>174</v>
+        <v>373</v>
       </c>
       <c r="B7" t="n">
         <v>113387</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B8" t="n">
         <v>101043</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>295</v>
+        <v>439</v>
       </c>
       <c r="B9" t="n">
         <v>114751</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>469</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>113074</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Ядерные</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1074,10 +1074,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="B11" t="n">
-        <v>102319</v>
+        <v>102325</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="B12" t="n">
         <v>113367</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>385</v>
+        <v>58</v>
       </c>
       <c r="B13" t="n">
         <v>114035</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B14" t="n">
         <v>253029</v>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>115417</v>
+        <v>113206</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1389,7 +1389,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>404</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>113073</v>
@@ -1428,7 +1428,7 @@
         <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6942889137737962</v>
+        <v>0.7021517553793885</v>
       </c>
       <c r="K16" t="n">
         <v>15.2</v>
@@ -1452,14 +1452,14 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>233</v>
+        <v>405</v>
       </c>
       <c r="B17" t="n">
-        <v>112682</v>
+        <v>113207</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
+          <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Guangzhou Gorla</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1479,22 +1479,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Зубочистки в индивидуальной бумажной упаковке</t>
+          <t>Стаканы-шейкеры ПЭТ от 300 мл</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6263982102908278</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="K17" t="n">
-        <v>357.29</v>
+        <v>18.14</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>89.5</v>
+        <v>1902</v>
       </c>
       <c r="N17" t="n">
-        <v>31977.455</v>
+        <v>34502.28</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1515,24 +1515,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>455</v>
+        <v>360</v>
       </c>
       <c r="B18" t="n">
-        <v>253028</v>
+        <v>112682</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр"</t>
+          <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1542,33 +1542,33 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Контейнеры для суши </t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Контейнеры для суши универсальные 1-секционные длиной менее 200 мм</t>
+          <t>Зубочистки в индивидуальной бумажной упаковке</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.6263982102908278</v>
       </c>
       <c r="K18" t="n">
-        <v>18.38</v>
+        <v>357.29</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1680</v>
+        <v>89.5</v>
       </c>
       <c r="N18" t="n">
-        <v>30878.4</v>
+        <v>31977.455</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1578,14 +1578,14 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="B19" t="n">
-        <v>115784</v>
+        <v>253028</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+          <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ЭКСПЕРТ УПАКОВК</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1605,12 +1605,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Пакеты фасовочные</t>
+          <t xml:space="preserve">Контейнеры для суши </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Пакеты вакуумные 65 (70) мкм</t>
+          <t>Контейнеры для суши универсальные 1-секционные длиной менее 200 мм</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2413.78</v>
+        <v>18.38</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>12</v>
+        <v>1680</v>
       </c>
       <c r="N19" t="n">
-        <v>28965.36</v>
+        <v>30878.4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1641,24 +1641,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>470</v>
+        <v>116</v>
       </c>
       <c r="B20" t="n">
-        <v>113207</v>
+        <v>115784</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+          <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ЭКСПЕРТ УПАКОВК</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1668,33 +1668,33 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Пакеты фасовочные</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Стаканы-шейкеры ПЭТ от 300 мл</t>
+          <t>Пакеты вакуумные 65 (70) мкм</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7071428571428572</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>18.14</v>
+        <v>2413.78</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>977</v>
+        <v>12</v>
       </c>
       <c r="N20" t="n">
-        <v>17722.78</v>
+        <v>28965.36</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B21" t="n">
         <v>114921</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
         <v>250043</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="B23" t="n">
         <v>112806</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="B24" t="n">
         <v>112225</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>0.33559299281831</v>
+        <v>0.3597381106554428</v>
       </c>
       <c r="K24" t="n">
         <v>4.61</v>
@@ -1956,14 +1956,14 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>403</v>
+        <v>179</v>
       </c>
       <c r="B25" t="n">
-        <v>115023</v>
+        <v>102347</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Пакет на вынос [320х200]х340 мм L без ручек, лого "Ёбидоёби" Весело и вкусно, крафт, бум., 500 шт/ко</t>
+          <t>Контейнер 500 мл 1-секц. d115хh82,6 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1983,33 +1983,33 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Пакеты на вынос</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Пакеты бумажные без ручек на вынос цветные, с печатью</t>
+          <t>Контейнеры универсальные ПП круглые черные</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="K25" t="n">
-        <v>28.98</v>
+        <v>21.3</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="N25" t="n">
-        <v>14490</v>
+        <v>11778.9</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2019,14 +2019,14 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>188</v>
+        <v>470</v>
       </c>
       <c r="B26" t="n">
-        <v>102347</v>
+        <v>115003</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. d115хh82,6 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
+          <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые в инд. упаковке, 150 шт/упак (ООО ПК Диап</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2046,33 +2046,33 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП круглые черные</t>
+          <t>Трубочки для коктейлей пластиковые прямые в индивидуальной упаковке</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3960396039603961</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="K26" t="n">
-        <v>21.3</v>
+        <v>241.33</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>553</v>
+        <v>46</v>
       </c>
       <c r="N26" t="n">
-        <v>11778.9</v>
+        <v>11101.18</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2082,24 +2082,24 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>314</v>
+        <v>473</v>
       </c>
       <c r="B27" t="n">
-        <v>115003</v>
+        <v>109414</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые в инд. упаковке, 150 шт/упак (ООО ПК Диап</t>
+          <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2109,33 +2109,33 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Барные аксессуары</t>
+          <t>Бытовая и профессион</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Трубочки для коктейлей пластиковые прямые в индивидуальной упаковке</t>
+          <t>Мыло жидкое антибактериальное от 3.5 л</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K27" t="n">
-        <v>241.33</v>
+        <v>810</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N27" t="n">
-        <v>11101.18</v>
+        <v>8100</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2145,14 +2145,14 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>441</v>
+        <v>243</v>
       </c>
       <c r="B28" t="n">
-        <v>109414</v>
+        <v>106387</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Мыло жидкое антибактериальное "Silver" Regular, бутылка ПЭТ, 5000 мл</t>
+          <t>Крышка к контейнеру d140хh15 мм, прозр., ПП, 540 шт/кор (ТОО Аке Пласт)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2172,33 +2172,33 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Мыло жидкое антибактериальное от 3.5 л</t>
+          <t>Крышки к круглым контейнерам универсальные ПП</t>
         </is>
       </c>
       <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.6724137931034483</v>
+      </c>
+      <c r="K28" t="n">
         <v>14</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.3442622950819672</v>
-      </c>
-      <c r="K28" t="n">
-        <v>810</v>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>Регулярные</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>497</v>
       </c>
       <c r="N28" t="n">
-        <v>8100</v>
+        <v>6958</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2208,14 +2208,14 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>306</v>
+        <v>94</v>
       </c>
       <c r="B29" t="n">
-        <v>115606</v>
+        <v>101366</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с питейником тип З, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, флакон, 1000 мл</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2235,33 +2235,33 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Стаканы, чашки, крыш</t>
+          <t>Бытовая и профессион</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Крышки ПП для стаканов</t>
+          <t>Хлоросодержащие средства жидкие до 5.0 л</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0.2836879432624114</v>
       </c>
       <c r="K29" t="n">
-        <v>6.77</v>
+        <v>240</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1050</v>
+        <v>28.25</v>
       </c>
       <c r="N29" t="n">
-        <v>7108.5</v>
+        <v>6780</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2271,24 +2271,24 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>456</v>
+        <v>172</v>
       </c>
       <c r="B30" t="n">
-        <v>106387</v>
+        <v>151497</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру d140хh15 мм, прозр., ПП, 540 шт/кор (ТОО Аке Пласт)</t>
+          <t>Контейнер 200 мл 1-секц. 108х82х39 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>АЛЬКОР ООО</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2303,17 +2303,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Крышки к круглым контейнерам универсальные ПП</t>
+          <t>Контейнеры универсальные ПП прямоугольные прозрачные до 250 мл</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6724137931034483</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="K30" t="n">
-        <v>14</v>
+        <v>6.17</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="N30" t="n">
-        <v>6958</v>
+        <v>6170</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2334,14 +2334,14 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>448</v>
+        <v>241</v>
       </c>
       <c r="B31" t="n">
-        <v>101366</v>
+        <v>106413</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, флакон, 1000 мл</t>
+          <t>Контейнер 500 мл 1-секц. d140хh70 мм, без крышки, черн., ПП, 540 шт/кор (ТОО Аке Пласт)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2361,22 +2361,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Бытовая и профессион</t>
+          <t>Контейнеры пластиков</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Хлоросодержащие средства жидкие до 5.0 л</t>
+          <t>Контейнеры универсальные ПП круглые черные</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2836879432624114</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="K31" t="n">
-        <v>240</v>
+        <v>16.5</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>28.25</v>
+        <v>361</v>
       </c>
       <c r="N31" t="n">
-        <v>6780</v>
+        <v>5956.5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2397,24 +2397,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>43</v>
+        <v>460</v>
       </c>
       <c r="B32" t="n">
-        <v>151497</v>
+        <v>114176</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Контейнер 200 мл 1-секц. 108х82х39 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+          <t>Контейнер 200 мл 1-секц. 108х82х35 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>АЛЬКОР ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2433,13 +2433,13 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="K32" t="n">
-        <v>6.17</v>
+        <v>6</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1000</v>
+        <v>925</v>
       </c>
       <c r="N32" t="n">
-        <v>6170</v>
+        <v>5550</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>370</v>
+        <v>143</v>
       </c>
       <c r="B33" t="n">
-        <v>106413</v>
+        <v>270117</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. d140хh70 мм, без крышки, черн., ПП, 540 шт/кор (ТОО Аке Пласт)</t>
+          <t>Бумага для выпечки силикон. в рулоне 380мм х 25м, коричн. (ООО ТДЗ)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ТДЗ ООО</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2487,22 +2487,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Пергамент и бумага д</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП круглые черные</t>
+          <t>Бумага для выпечки силиконизированная в рулоне</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1710526315789474</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K33" t="n">
-        <v>16.5</v>
+        <v>648.41</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>361</v>
+        <v>8.25</v>
       </c>
       <c r="N33" t="n">
-        <v>5956.5</v>
+        <v>5349.3825</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2523,24 +2523,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="B34" t="n">
-        <v>114176</v>
+        <v>113306</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Контейнер 200 мл 1-секц. 108х82х35 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт</t>
+          <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t xml:space="preserve">НИЖПОЛИМЕРУПАК </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2550,22 +2550,22 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Контейнеры пластиков</t>
+          <t>Пакеты-сумки</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Контейнеры универсальные ПП прямоугольные прозрачные до 250 мл</t>
+          <t>Пакеты типа "Майка" белые, черные, прозрачные без дизайна</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.29</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>283.34</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2573,10 +2573,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>925</v>
+        <v>18.875</v>
       </c>
       <c r="N34" t="n">
-        <v>5550</v>
+        <v>5348.0425</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2586,24 +2586,24 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>443</v>
+        <v>315</v>
       </c>
       <c r="B35" t="n">
-        <v>270117</v>
+        <v>104345</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Бумага для выпечки силикон. в рулоне 380мм х 25м, коричн. (ООО ТДЗ)</t>
+          <t>Упаковка для кондит. изделий 1450 мл, 1-секц. 157х155х84[140х140х79] мм, неразъем.крышка, прозр., ПЭ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ТДЗ ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2613,22 +2613,22 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Пергамент и бумага д</t>
+          <t>Упаковка для кондите</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Бумага для выпечки силиконизированная в рулоне</t>
+          <t>Упаковка для кондитерских изделий пластиковая с неразъемной крышкой прямоугольная длиной 150-159 мм</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="K35" t="n">
-        <v>648.41</v>
+        <v>18.5</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>8.25</v>
+        <v>248</v>
       </c>
       <c r="N35" t="n">
-        <v>5349.3825</v>
+        <v>4588</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2649,24 +2649,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="B36" t="n">
-        <v>113306</v>
+        <v>113936</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+          <t>Обертка для бургеров и хот-догов 305х305 мм, диз. "Газета", черно-бел., бум., 1000 шт/кор (ООО Тек-П</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">НИЖПОЛИМЕРУПАК </t>
+          <t>ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2676,33 +2676,33 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Пакеты-сумки</t>
+          <t>Упаковка пищевая бум</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Пакеты типа "Майка" белые, черные, прозрачные без дизайна</t>
+          <t>Обертка для бургеров с печатью, логотипом</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>283.34</v>
+        <v>4.52</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Регулярные</t>
+          <t>Хорошие новинки</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>18.875</v>
+        <v>1000</v>
       </c>
       <c r="N36" t="n">
-        <v>5348.0425</v>
+        <v>4520</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2712,14 +2712,14 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="B37" t="n">
-        <v>104345</v>
+        <v>106065</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Упаковка для кондит. изделий 1450 мл, 1-секц. 157х155х84[140х140х79] мм, неразъем.крышка, прозр., ПЭ</t>
+          <t>Лоток [короб] для фастфуда 165х70х40 мм, крафт, карт., 50 шт/упак "OSQ" Eco HD Bio</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2739,22 +2739,22 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Упаковка для кондите</t>
+          <t>Упаковка пищевая бум</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Упаковка для кондитерских изделий пластиковая с неразъемной крышкой прямоугольная длиной 150-159 мм</t>
+          <t>Короба без крышки (лотки) для бургеров и хот-догов</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3137254901960784</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>18.5</v>
+        <v>14.53</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="N37" t="n">
-        <v>4588</v>
+        <v>4359</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2775,14 +2775,14 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="B38" t="n">
-        <v>113936</v>
+        <v>114953</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Обертка для бургеров и хот-догов 305х305 мм, диз. "Газета", черно-бел., бум., 1000 шт/кор (ООО Тек-П</t>
+          <t>Стакан бумажный 400 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2802,12 +2802,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Упаковка пищевая бум</t>
+          <t>Стаканы</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Обертка для бургеров с печатью, логотипом</t>
+          <t>Стаканы бумажные 400-490 мл цветные однотонные 1-слойные</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2817,18 +2817,18 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>4.52</v>
+        <v>17.82</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1000</v>
+        <v>225</v>
       </c>
       <c r="N38" t="n">
-        <v>4520</v>
+        <v>4009.5</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="B39" t="n">
         <v>114390</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B40" t="n">
         <v>102736</v>
@@ -2940,7 +2940,7 @@
         <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="K40" t="n">
         <v>70.06999999999999</v>
@@ -2964,24 +2964,24 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>438</v>
+        <v>144</v>
       </c>
       <c r="B41" t="n">
-        <v>114953</v>
+        <v>100629</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Стакан бумажный 400 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Полотенца бумажные для диспенсеров 230х210 мм 1-сл. Z-сложен., бел., 200 лист/упак "Терес"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ТЕРЕС-СЕРВИС ОО</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2991,22 +2991,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Стаканы</t>
+          <t>Полотенца бумажные</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Стаканы бумажные 400-490 мл цветные однотонные 1-слойные</t>
+          <t>Полотенца бумажные для диспенсеров Z-сложение 1-слойные из целлюлозы</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0.8085808580858086</v>
       </c>
       <c r="K41" t="n">
-        <v>17.82</v>
+        <v>295.25</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3014,10 +3014,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>187.5</v>
+        <v>11.125</v>
       </c>
       <c r="N41" t="n">
-        <v>3341.25</v>
+        <v>3284.65625</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="B42" t="n">
         <v>501111</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>300</v>
+        <v>13</v>
       </c>
       <c r="B43" t="n">
         <v>112884</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B44" t="n">
         <v>102739</v>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2788732394366197</v>
+        <v>0.2828571428571429</v>
       </c>
       <c r="K44" t="n">
         <v>70.17</v>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>31</v>
+        <v>32.125</v>
       </c>
       <c r="N44" t="n">
-        <v>2175.27</v>
+        <v>2254.21125</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B45" t="n">
         <v>104326</v>
@@ -3279,14 +3279,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="B46" t="n">
-        <v>451356</v>
+        <v>113606</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров 2-сл. с центр. вытяжкой, бел., 125 м "Focus" Jumbo</t>
+          <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3306,33 +3306,33 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Полотенца бумажные</t>
+          <t>Барные аксессуары</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров в рулонах с центральной вытяжкой 2-слойные из целлюлозы</t>
+          <t>Размешиватели из натуральных материалов в индивидуальной упаковке</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0.4925608434328505</v>
       </c>
       <c r="K46" t="n">
-        <v>970.77</v>
+        <v>2.09</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Хорошие новинки</t>
+          <t>Регулярные</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1.5</v>
+        <v>500</v>
       </c>
       <c r="N46" t="n">
-        <v>1456.155</v>
+        <v>1045</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B47" t="n">
         <v>102737</v>
@@ -3378,10 +3378,10 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="K47" t="n">
         <v>70.06999999999999</v>
@@ -3392,75 +3392,12 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>9.25</v>
+        <v>9.875</v>
       </c>
       <c r="N47" t="n">
-        <v>648.1474999999999</v>
+        <v>691.94125</v>
       </c>
       <c r="O47" t="inlineStr">
-        <is>
-          <t>Дефицит</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B48" t="n">
-        <v>115607</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Крышка для стакана d90 мм с питейником тип З, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ВЗЛП ООО</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Стаканы, чашки, крыш</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Крышки ПП для стаканов</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Хорошие новинки</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>50</v>
-      </c>
-      <c r="N48" t="n">
-        <v>338.5</v>
-      </c>
-      <c r="O48" t="inlineStr">
         <is>
           <t>Дефицит</t>
         </is>
